--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H2">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I2">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J2">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N2">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O2">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P2">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q2">
-        <v>1.344047633537778</v>
+        <v>3.823341852605334</v>
       </c>
       <c r="R2">
-        <v>12.09642870184</v>
+        <v>34.410076673448</v>
       </c>
       <c r="S2">
-        <v>0.002710116750849154</v>
+        <v>0.01801033256738236</v>
       </c>
       <c r="T2">
-        <v>0.002710116750849154</v>
+        <v>0.01801033256738236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H3">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I3">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J3">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q3">
-        <v>1.108498159595555</v>
+        <v>2.711377846028444</v>
       </c>
       <c r="R3">
-        <v>9.976483436359999</v>
+        <v>24.402400614256</v>
       </c>
       <c r="S3">
-        <v>0.002235158453943988</v>
+        <v>0.01277228628916063</v>
       </c>
       <c r="T3">
-        <v>0.002235158453943988</v>
+        <v>0.01277228628916063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H4">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I4">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J4">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N4">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q4">
-        <v>0.2380650673488889</v>
+        <v>0.9973876030284445</v>
       </c>
       <c r="R4">
-        <v>2.14258560614</v>
+        <v>8.976488427256001</v>
       </c>
       <c r="S4">
-        <v>0.0004800307003376168</v>
+        <v>0.004698319721760148</v>
       </c>
       <c r="T4">
-        <v>0.0004800307003376168</v>
+        <v>0.004698319721760148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H5">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I5">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J5">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N5">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q5">
-        <v>3.495293277108888</v>
+        <v>2.305463943278222</v>
       </c>
       <c r="R5">
-        <v>31.45763949398</v>
+        <v>20.749175489504</v>
       </c>
       <c r="S5">
-        <v>0.00704785501871648</v>
+        <v>0.0108601778081275</v>
       </c>
       <c r="T5">
-        <v>0.007047855018716479</v>
+        <v>0.0108601778081275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H6">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I6">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J6">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N6">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q6">
-        <v>0.09552389384222221</v>
+        <v>0.2014453180942222</v>
       </c>
       <c r="R6">
-        <v>0.8597150445799999</v>
+        <v>1.813007862848</v>
       </c>
       <c r="S6">
-        <v>0.0001926128943263128</v>
+        <v>0.0009489335018648098</v>
       </c>
       <c r="T6">
-        <v>0.0001926128943263128</v>
+        <v>0.0009489335018648099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H7">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I7">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J7">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N7">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q7">
-        <v>0.7183728830288888</v>
+        <v>0.902252423215111</v>
       </c>
       <c r="R7">
-        <v>6.46535594726</v>
+        <v>8.120271808936</v>
       </c>
       <c r="S7">
-        <v>0.00144851591199031</v>
+        <v>0.004250173494362698</v>
       </c>
       <c r="T7">
-        <v>0.00144851591199031</v>
+        <v>0.004250173494362699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H8">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I8">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J8">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N8">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O8">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P8">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q8">
-        <v>89.39330442668222</v>
+        <v>68.83213958514399</v>
       </c>
       <c r="R8">
-        <v>804.53973984014</v>
+        <v>619.4892562662959</v>
       </c>
       <c r="S8">
-        <v>0.1802512691479694</v>
+        <v>0.3242424488953734</v>
       </c>
       <c r="T8">
-        <v>0.1802512691479694</v>
+        <v>0.3242424488953734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H9">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I9">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J9">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>21.393154</v>
       </c>
       <c r="O9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q9">
-        <v>73.72678688203443</v>
+        <v>48.81330144170133</v>
       </c>
       <c r="R9">
-        <v>663.54108193831</v>
+        <v>439.319712975312</v>
       </c>
       <c r="S9">
-        <v>0.1486615467558659</v>
+        <v>0.2299411945279892</v>
       </c>
       <c r="T9">
-        <v>0.1486615467558659</v>
+        <v>0.2299411945279892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H10">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I10">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J10">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N10">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q10">
-        <v>15.83383096539611</v>
+        <v>17.95610368070133</v>
       </c>
       <c r="R10">
-        <v>142.504478688565</v>
+        <v>161.604933126312</v>
       </c>
       <c r="S10">
-        <v>0.03192709057229103</v>
+        <v>0.08458448429963399</v>
       </c>
       <c r="T10">
-        <v>0.03192709057229103</v>
+        <v>0.084584484299634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H11">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I11">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J11">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N11">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q11">
-        <v>232.4737666913561</v>
+        <v>41.50557864557866</v>
       </c>
       <c r="R11">
-        <v>2092.263900222205</v>
+        <v>373.550207810208</v>
       </c>
       <c r="S11">
-        <v>0.4687564886259918</v>
+        <v>0.1955172473785276</v>
       </c>
       <c r="T11">
-        <v>0.4687564886259917</v>
+        <v>0.1955172473785276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H12">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I12">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J12">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N12">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q12">
-        <v>6.353343668172777</v>
+        <v>3.626647260010667</v>
       </c>
       <c r="R12">
-        <v>57.18009301355499</v>
+        <v>32.639825340096</v>
       </c>
       <c r="S12">
-        <v>0.01281078338994188</v>
+        <v>0.01708377795536885</v>
       </c>
       <c r="T12">
-        <v>0.01281078338994188</v>
+        <v>0.01708377795536885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H13">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I13">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J13">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N13">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q13">
-        <v>47.77935262267611</v>
+        <v>16.24337219374133</v>
       </c>
       <c r="R13">
-        <v>430.014173604085</v>
+        <v>146.190349743672</v>
       </c>
       <c r="S13">
-        <v>0.09634154374916613</v>
+        <v>0.0765164472608437</v>
       </c>
       <c r="T13">
-        <v>0.09634154374916612</v>
+        <v>0.0765164472608437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H14">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I14">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J14">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N14">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O14">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P14">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q14">
-        <v>4.488667756093777</v>
+        <v>1.526227559107334</v>
       </c>
       <c r="R14">
-        <v>40.39800980484399</v>
+        <v>13.736048031966</v>
       </c>
       <c r="S14">
-        <v>0.009050879873034138</v>
+        <v>0.007189486834481272</v>
       </c>
       <c r="T14">
-        <v>0.009050879873034136</v>
+        <v>0.007189486834481272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H15">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I15">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J15">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>21.393154</v>
       </c>
       <c r="O15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q15">
-        <v>3.702011612169555</v>
+        <v>1.082346217339111</v>
       </c>
       <c r="R15">
-        <v>33.31810450952599</v>
+        <v>9.741115956052001</v>
       </c>
       <c r="S15">
-        <v>0.00746467865545094</v>
+        <v>0.005098527957692909</v>
       </c>
       <c r="T15">
-        <v>0.007464678655450939</v>
+        <v>0.005098527957692909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H16">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I16">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J16">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N16">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q16">
-        <v>0.7950573811498889</v>
+        <v>0.3981439550891112</v>
       </c>
       <c r="R16">
-        <v>7.155516430349</v>
+        <v>3.583295595802</v>
       </c>
       <c r="S16">
-        <v>0.001603141341701572</v>
+        <v>0.001875507165534129</v>
       </c>
       <c r="T16">
-        <v>0.001603141341701571</v>
+        <v>0.001875507165534129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H17">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I17">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J17">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N17">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q17">
-        <v>11.67310580336589</v>
+        <v>0.9203107497075556</v>
       </c>
       <c r="R17">
-        <v>105.057952230293</v>
+        <v>8.282796747368</v>
       </c>
       <c r="S17">
-        <v>0.02353746904703522</v>
+        <v>0.004335239512071177</v>
       </c>
       <c r="T17">
-        <v>0.02353746904703521</v>
+        <v>0.004335239512071177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H18">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I18">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J18">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N18">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q18">
-        <v>0.3190177278892222</v>
+        <v>0.08041430977955556</v>
       </c>
       <c r="R18">
-        <v>2.871159551003</v>
+        <v>0.723728788016</v>
       </c>
       <c r="S18">
-        <v>0.0006432623863893122</v>
+        <v>0.000378801718009965</v>
       </c>
       <c r="T18">
-        <v>0.0006432623863893121</v>
+        <v>0.000378801718009965</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H19">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I19">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J19">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N19">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q19">
-        <v>2.399124195037889</v>
+        <v>0.3601672480957777</v>
       </c>
       <c r="R19">
-        <v>21.592117755341</v>
+        <v>3.241505232862</v>
       </c>
       <c r="S19">
-        <v>0.004837556724999007</v>
+        <v>0.001696613111815681</v>
       </c>
       <c r="T19">
-        <v>0.004837556724999006</v>
+        <v>0.001696613111815681</v>
       </c>
     </row>
   </sheetData>
